--- a/export/template/勤務表model.xlsx
+++ b/export/template/勤務表model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Git\JCBridge_duty\export\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51707669-F315-4A0C-B473-808D9B423166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA0CD1F-5C11-453A-82E2-410C6B221576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1725" windowWidth="36450" windowHeight="23190" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務表" sheetId="33" r:id="rId1"/>
@@ -2180,154 +2180,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="55" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2778,7 +2778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007F0542-7C34-4DD8-BD25-E3647F3F5BDD}">
   <dimension ref="A1:AJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3003,40 +3005,34 @@
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="N7" s="50"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="112" t="s">
+      <c r="Q7" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="102">
-        <v>0.375</v>
-      </c>
-      <c r="U7" s="103"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="103">
-        <v>0.75</v>
-      </c>
-      <c r="X7" s="104"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98"/>
       <c r="Y7" s="26"/>
-      <c r="Z7" s="93" t="s">
+      <c r="Z7" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AC7" s="95"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="91"/>
       <c r="AD7" s="27"/>
       <c r="AH7" t="s">
         <v>86</v>
@@ -3090,25 +3086,25 @@
         <v>9</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="84" t="s">
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="84" t="s">
+      <c r="O9" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="84"/>
       <c r="R9" s="10" t="s">
         <v>12</v>
       </c>
@@ -3147,17 +3143,17 @@
       <c r="D10" s="3"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="89"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="81"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
@@ -3192,17 +3188,17 @@
       <c r="D11" s="6"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="89"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="81"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
@@ -3237,17 +3233,17 @@
       <c r="D12" s="6"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="89"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
@@ -3282,17 +3278,17 @@
       <c r="D13" s="19"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="89"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="81"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
@@ -3327,17 +3323,17 @@
       <c r="D14" s="19"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="89"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="81"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
@@ -3370,17 +3366,17 @@
       <c r="D15" s="6"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="89"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="81"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
@@ -3411,17 +3407,17 @@
       <c r="D16" s="6"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="89"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="81"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
@@ -3452,17 +3448,17 @@
       <c r="D17" s="6"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="89"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
@@ -3493,17 +3489,17 @@
       <c r="D18" s="6"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="89"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="81"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
@@ -3531,17 +3527,17 @@
       <c r="D19" s="6"/>
       <c r="E19" s="33"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="89"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="81"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
@@ -3569,17 +3565,17 @@
       <c r="D20" s="19"/>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="89"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="81"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
@@ -3607,17 +3603,17 @@
       <c r="D21" s="19"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="89"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="81"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
@@ -3645,17 +3641,17 @@
       <c r="D22" s="6"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="81"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
@@ -3683,17 +3679,17 @@
       <c r="D23" s="6"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="89"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="81"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
@@ -3721,17 +3717,17 @@
       <c r="D24" s="6"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="89"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="81"/>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
@@ -3759,17 +3755,17 @@
       <c r="D25" s="6"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="89"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="81"/>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -3797,17 +3793,17 @@
       <c r="D26" s="6"/>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="89"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="81"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
@@ -3835,17 +3831,17 @@
       <c r="D27" s="19"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="89"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="81"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
@@ -3873,17 +3869,17 @@
       <c r="D28" s="19"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="89"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="81"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
@@ -3911,17 +3907,17 @@
       <c r="D29" s="6"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="89"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="81"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
@@ -3949,17 +3945,17 @@
       <c r="D30" s="6"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="89"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="81"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
@@ -3987,17 +3983,17 @@
       <c r="D31" s="6"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="89"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="81"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
@@ -4025,17 +4021,17 @@
       <c r="D32" s="19"/>
       <c r="E32" s="33"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="89"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="81"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
@@ -4063,17 +4059,17 @@
       <c r="D33" s="19"/>
       <c r="E33" s="33"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="89"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="81"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
@@ -4101,17 +4097,17 @@
       <c r="D34" s="19"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="89"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="81"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
@@ -4139,17 +4135,17 @@
       <c r="D35" s="19"/>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="89"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="81"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
@@ -4177,17 +4173,17 @@
       <c r="D36" s="6"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="89"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="81"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
@@ -4215,17 +4211,17 @@
       <c r="D37" s="6"/>
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="89"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="81"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
@@ -4253,17 +4249,17 @@
       <c r="D38" s="6"/>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="89"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="81"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
@@ -4291,17 +4287,17 @@
       <c r="D39" s="6"/>
       <c r="E39" s="33"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="89"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="81"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
@@ -4329,17 +4325,17 @@
       <c r="D40" s="8"/>
       <c r="E40" s="33"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="89"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="80"/>
+      <c r="Q40" s="81"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
@@ -4401,37 +4397,37 @@
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
       <c r="L42" s="26"/>
-      <c r="M42" s="96" t="s">
+      <c r="M42" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="97"/>
-      <c r="O42" s="108" t="s">
+      <c r="N42" s="93"/>
+      <c r="O42" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100" t="s">
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100" t="s">
+      <c r="S42" s="72"/>
+      <c r="T42" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="U42" s="100"/>
-      <c r="V42" s="100" t="s">
+      <c r="U42" s="72"/>
+      <c r="V42" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="W42" s="100"/>
-      <c r="X42" s="100" t="s">
+      <c r="W42" s="72"/>
+      <c r="X42" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Y42" s="100"/>
-      <c r="Z42" s="100" t="s">
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AA42" s="100"/>
-      <c r="AB42" s="100"/>
-      <c r="AC42" s="113"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="73"/>
       <c r="AD42" s="52"/>
     </row>
     <row r="43" spans="1:30" ht="14.25" thickBot="1">
@@ -4449,41 +4445,41 @@
       <c r="J43" s="38"/>
       <c r="K43" s="39"/>
       <c r="L43" s="26"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="105">
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="99">
         <f>SUM(O10:Q40)</f>
         <v>0</v>
       </c>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="107">
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="101">
         <f>COUNTA(G10:I40)-X43</f>
         <v>0</v>
       </c>
-      <c r="S43" s="107"/>
-      <c r="T43" s="101">
+      <c r="S43" s="101"/>
+      <c r="T43" s="74">
         <f>COUNTIF($E$10:$E$40,T42)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101">
+      <c r="U43" s="74"/>
+      <c r="V43" s="74">
         <f>COUNTIF($E$10:$E$40,V42)+(COUNTIF($E$10:$E$40,"半休")*0.5)</f>
         <v>0</v>
       </c>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101">
+      <c r="W43" s="74"/>
+      <c r="X43" s="74">
         <f>COUNTIF($E$10:$E$40,X42)</f>
         <v>0</v>
       </c>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101">
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74">
         <f>COUNTIF($E$10:$E$40,"遅刻")+COUNTIF($E$10:$E$40,"早退")</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="114"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="75"/>
       <c r="AD43" s="52"/>
     </row>
     <row r="44" spans="1:30">
@@ -4533,20 +4529,20 @@
       <c r="J45" s="38"/>
       <c r="K45" s="39"/>
       <c r="L45" s="26"/>
-      <c r="M45" s="82" t="s">
+      <c r="M45" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="83"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="31"/>
-      <c r="P45" s="82" t="s">
+      <c r="P45" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="Q45" s="83"/>
+      <c r="Q45" s="104"/>
       <c r="R45" s="26"/>
-      <c r="S45" s="82" t="s">
+      <c r="S45" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="T45" s="83"/>
+      <c r="T45" s="104"/>
       <c r="U45" s="26"/>
       <c r="V45" s="26"/>
       <c r="W45" s="26"/>
@@ -4865,127 +4861,127 @@
       </c>
     </row>
     <row r="98" spans="2:31">
-      <c r="C98" s="77" t="s">
+      <c r="C98" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77" t="s">
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="75" t="s">
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
+      <c r="I98" s="78"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L98" s="75"/>
-      <c r="M98" s="75"/>
-      <c r="N98" s="75" t="s">
+      <c r="L98" s="76"/>
+      <c r="M98" s="76"/>
+      <c r="N98" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="O98" s="75"/>
-      <c r="P98" s="75" t="s">
+      <c r="O98" s="76"/>
+      <c r="P98" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="Q98" s="75"/>
-      <c r="R98" s="75" t="s">
+      <c r="Q98" s="76"/>
+      <c r="R98" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="S98" s="75"/>
-      <c r="T98" s="75" t="s">
+      <c r="S98" s="76"/>
+      <c r="T98" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="U98" s="75"/>
-      <c r="V98" s="75" t="s">
+      <c r="U98" s="76"/>
+      <c r="V98" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="W98" s="75"/>
-      <c r="X98" s="75"/>
-      <c r="Y98" s="75"/>
+      <c r="W98" s="76"/>
+      <c r="X98" s="76"/>
+      <c r="Y98" s="76"/>
     </row>
     <row r="99" spans="2:31">
-      <c r="C99" s="76">
+      <c r="C99" s="105">
         <v>3</v>
       </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="77" t="s">
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
-      <c r="I99" s="77"/>
-      <c r="J99" s="77"/>
-      <c r="K99" s="67">
+      <c r="G99" s="78"/>
+      <c r="H99" s="78"/>
+      <c r="I99" s="78"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="106">
         <v>160.5</v>
       </c>
-      <c r="L99" s="67"/>
-      <c r="M99" s="67"/>
-      <c r="N99" s="68">
+      <c r="L99" s="106"/>
+      <c r="M99" s="106"/>
+      <c r="N99" s="107">
         <v>21</v>
       </c>
-      <c r="O99" s="68"/>
-      <c r="P99" s="79">
+      <c r="O99" s="107"/>
+      <c r="P99" s="108">
         <v>0</v>
       </c>
-      <c r="Q99" s="79"/>
-      <c r="R99" s="80">
+      <c r="Q99" s="108"/>
+      <c r="R99" s="109">
         <v>0</v>
       </c>
-      <c r="S99" s="80"/>
-      <c r="T99" s="80">
+      <c r="S99" s="109"/>
+      <c r="T99" s="109">
         <v>1</v>
       </c>
-      <c r="U99" s="80"/>
-      <c r="V99" s="81">
+      <c r="U99" s="109"/>
+      <c r="V99" s="77">
         <v>0</v>
       </c>
-      <c r="W99" s="81"/>
-      <c r="X99" s="81"/>
-      <c r="Y99" s="81"/>
+      <c r="W99" s="77"/>
+      <c r="X99" s="77"/>
+      <c r="Y99" s="77"/>
     </row>
     <row r="100" spans="2:31">
-      <c r="C100" s="76">
+      <c r="C100" s="105">
         <v>5</v>
       </c>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="77" t="s">
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="67">
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="106">
         <v>150</v>
       </c>
-      <c r="L100" s="67"/>
-      <c r="M100" s="67"/>
-      <c r="N100" s="68">
+      <c r="L100" s="106"/>
+      <c r="M100" s="106"/>
+      <c r="N100" s="107">
         <v>19</v>
       </c>
-      <c r="O100" s="68"/>
-      <c r="P100" s="69">
+      <c r="O100" s="107"/>
+      <c r="P100" s="110">
         <v>2</v>
       </c>
-      <c r="Q100" s="69"/>
-      <c r="R100" s="75">
+      <c r="Q100" s="110"/>
+      <c r="R100" s="76">
         <v>2</v>
       </c>
-      <c r="S100" s="75"/>
-      <c r="T100" s="75">
+      <c r="S100" s="76"/>
+      <c r="T100" s="76">
         <v>0</v>
       </c>
-      <c r="U100" s="75"/>
-      <c r="V100" s="77">
+      <c r="U100" s="76"/>
+      <c r="V100" s="78">
         <v>2</v>
       </c>
-      <c r="W100" s="77"/>
-      <c r="X100" s="77"/>
-      <c r="Y100" s="77"/>
+      <c r="W100" s="78"/>
+      <c r="X100" s="78"/>
+      <c r="Y100" s="78"/>
     </row>
     <row r="101" spans="2:31">
       <c r="C101" s="57"/>
@@ -5036,109 +5032,109 @@
       </c>
     </row>
     <row r="103" spans="2:31">
-      <c r="C103" s="76">
+      <c r="C103" s="105">
         <v>73</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="77" t="s">
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="67">
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="106">
         <v>185</v>
       </c>
-      <c r="L103" s="67"/>
-      <c r="M103" s="67"/>
-      <c r="N103" s="68">
+      <c r="L103" s="106"/>
+      <c r="M103" s="106"/>
+      <c r="N103" s="107">
         <v>20</v>
       </c>
-      <c r="O103" s="68"/>
-      <c r="P103" s="69">
+      <c r="O103" s="107"/>
+      <c r="P103" s="110">
         <v>0</v>
       </c>
-      <c r="Q103" s="69"/>
-      <c r="R103" s="75">
+      <c r="Q103" s="110"/>
+      <c r="R103" s="76">
         <v>0</v>
       </c>
-      <c r="S103" s="75"/>
-      <c r="T103" s="75">
+      <c r="S103" s="76"/>
+      <c r="T103" s="76">
         <v>0</v>
       </c>
-      <c r="U103" s="75"/>
-      <c r="V103" s="77">
+      <c r="U103" s="76"/>
+      <c r="V103" s="78">
         <v>0</v>
       </c>
-      <c r="W103" s="77"/>
-      <c r="X103" s="77"/>
-      <c r="Y103" s="77"/>
+      <c r="W103" s="78"/>
+      <c r="X103" s="78"/>
+      <c r="Y103" s="78"/>
     </row>
     <row r="104" spans="2:31">
-      <c r="C104" s="76">
+      <c r="C104" s="105">
         <v>74</v>
       </c>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="77" t="s">
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="67">
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="106">
         <v>145.5</v>
       </c>
-      <c r="L104" s="67"/>
-      <c r="M104" s="67"/>
-      <c r="N104" s="68">
+      <c r="L104" s="106"/>
+      <c r="M104" s="106"/>
+      <c r="N104" s="107">
         <v>21</v>
       </c>
-      <c r="O104" s="68"/>
-      <c r="P104" s="69">
+      <c r="O104" s="107"/>
+      <c r="P104" s="110">
         <v>1</v>
       </c>
-      <c r="Q104" s="69"/>
-      <c r="R104" s="75">
+      <c r="Q104" s="110"/>
+      <c r="R104" s="76">
         <v>0</v>
       </c>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75">
+      <c r="S104" s="76"/>
+      <c r="T104" s="76">
         <v>0</v>
       </c>
-      <c r="U104" s="75"/>
-      <c r="V104" s="77">
+      <c r="U104" s="76"/>
+      <c r="V104" s="78">
         <v>0</v>
       </c>
-      <c r="W104" s="77"/>
-      <c r="X104" s="77"/>
-      <c r="Y104" s="77"/>
+      <c r="W104" s="78"/>
+      <c r="X104" s="78"/>
+      <c r="Y104" s="78"/>
     </row>
     <row r="106" spans="2:31">
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="70"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="70"/>
-      <c r="O106" s="70"/>
-      <c r="P106" s="71"/>
-      <c r="Q106" s="71"/>
-      <c r="R106" s="78"/>
-      <c r="S106" s="78"/>
-      <c r="T106" s="78"/>
-      <c r="U106" s="78"/>
-      <c r="V106" s="72"/>
-      <c r="W106" s="72"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
+      <c r="F106" s="112"/>
+      <c r="G106" s="112"/>
+      <c r="H106" s="112"/>
+      <c r="I106" s="112"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="113"/>
+      <c r="L106" s="113"/>
+      <c r="M106" s="113"/>
+      <c r="N106" s="113"/>
+      <c r="O106" s="113"/>
+      <c r="P106" s="114"/>
+      <c r="Q106" s="114"/>
+      <c r="R106" s="111"/>
+      <c r="S106" s="111"/>
+      <c r="T106" s="111"/>
+      <c r="U106" s="111"/>
+      <c r="V106" s="112"/>
+      <c r="W106" s="112"/>
     </row>
     <row r="108" spans="2:31">
       <c r="B108" t="s">
@@ -5151,55 +5147,55 @@
       </c>
     </row>
     <row r="111" spans="2:31">
-      <c r="K111" s="73">
+      <c r="K111" s="115">
         <v>44013</v>
       </c>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="74"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="74"/>
+      <c r="L111" s="116"/>
+      <c r="M111" s="116"/>
+      <c r="N111" s="116"/>
+      <c r="O111" s="116"/>
+      <c r="P111" s="116"/>
+      <c r="Q111" s="116"/>
       <c r="R111" s="51"/>
       <c r="S111" s="54"/>
-      <c r="W111" s="73">
+      <c r="W111" s="115">
         <v>44348</v>
       </c>
-      <c r="X111" s="74"/>
-      <c r="Y111" s="74"/>
-      <c r="Z111" s="74"/>
-      <c r="AA111" s="74"/>
-      <c r="AB111" s="74"/>
-      <c r="AC111" s="74"/>
+      <c r="X111" s="116"/>
+      <c r="Y111" s="116"/>
+      <c r="Z111" s="116"/>
+      <c r="AA111" s="116"/>
+      <c r="AB111" s="116"/>
+      <c r="AC111" s="116"/>
       <c r="AD111" s="51"/>
       <c r="AE111" s="54"/>
     </row>
     <row r="112" spans="2:31">
-      <c r="C112" s="77" t="s">
+      <c r="C112" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77" t="s">
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="75" t="s">
+      <c r="G112" s="78"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L112" s="75"/>
-      <c r="M112" s="75"/>
-      <c r="N112" s="75" t="s">
+      <c r="L112" s="76"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="O112" s="75"/>
-      <c r="P112" s="75" t="s">
+      <c r="O112" s="76"/>
+      <c r="P112" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="Q112" s="75"/>
+      <c r="Q112" s="76"/>
       <c r="R112" s="55" t="s">
         <v>77</v>
       </c>
@@ -5210,115 +5206,115 @@
       <c r="V112" t="s">
         <v>17</v>
       </c>
-      <c r="W112" s="75" t="s">
+      <c r="W112" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="X112" s="75"/>
-      <c r="Y112" s="75"/>
-      <c r="Z112" s="75" t="s">
+      <c r="X112" s="76"/>
+      <c r="Y112" s="76"/>
+      <c r="Z112" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="AA112" s="75"/>
-      <c r="AB112" s="75" t="s">
+      <c r="AA112" s="76"/>
+      <c r="AB112" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="AC112" s="75"/>
+      <c r="AC112" s="76"/>
       <c r="AD112" s="55" t="s">
         <v>77</v>
       </c>
       <c r="AE112" s="56"/>
     </row>
     <row r="113" spans="1:31">
-      <c r="C113" s="76">
+      <c r="C113" s="105">
         <v>3</v>
       </c>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="77" t="s">
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="67">
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="106">
         <v>160.5</v>
       </c>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="68">
+      <c r="L113" s="106"/>
+      <c r="M113" s="106"/>
+      <c r="N113" s="107">
         <v>21</v>
       </c>
-      <c r="O113" s="68"/>
-      <c r="P113" s="69">
+      <c r="O113" s="107"/>
+      <c r="P113" s="110">
         <v>0</v>
       </c>
-      <c r="Q113" s="69"/>
+      <c r="Q113" s="110"/>
       <c r="R113" s="55" t="s">
         <v>77</v>
       </c>
       <c r="S113" s="56"/>
-      <c r="W113" s="67">
+      <c r="W113" s="106">
         <v>145</v>
       </c>
-      <c r="X113" s="67"/>
-      <c r="Y113" s="67"/>
-      <c r="Z113" s="68">
+      <c r="X113" s="106"/>
+      <c r="Y113" s="106"/>
+      <c r="Z113" s="107">
         <v>20</v>
       </c>
-      <c r="AA113" s="68"/>
-      <c r="AB113" s="69">
+      <c r="AA113" s="107"/>
+      <c r="AB113" s="110">
         <v>0</v>
       </c>
-      <c r="AC113" s="69"/>
+      <c r="AC113" s="110"/>
       <c r="AD113" s="55" t="s">
         <v>77</v>
       </c>
       <c r="AE113" s="56"/>
     </row>
     <row r="114" spans="1:31">
-      <c r="C114" s="76">
+      <c r="C114" s="105">
         <v>5</v>
       </c>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="77" t="s">
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="67">
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="106">
         <v>150</v>
       </c>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="68">
+      <c r="L114" s="106"/>
+      <c r="M114" s="106"/>
+      <c r="N114" s="107">
         <v>19</v>
       </c>
-      <c r="O114" s="68"/>
-      <c r="P114" s="69">
+      <c r="O114" s="107"/>
+      <c r="P114" s="110">
         <v>2</v>
       </c>
-      <c r="Q114" s="69"/>
+      <c r="Q114" s="110"/>
       <c r="R114" s="55" t="s">
         <v>77</v>
       </c>
       <c r="S114" s="56"/>
-      <c r="W114" s="67">
+      <c r="W114" s="106">
         <v>165.5</v>
       </c>
-      <c r="X114" s="67"/>
-      <c r="Y114" s="67"/>
-      <c r="Z114" s="68">
+      <c r="X114" s="106"/>
+      <c r="Y114" s="106"/>
+      <c r="Z114" s="107">
         <v>19</v>
       </c>
-      <c r="AA114" s="68"/>
-      <c r="AB114" s="69">
+      <c r="AA114" s="107"/>
+      <c r="AB114" s="110">
         <v>0</v>
       </c>
-      <c r="AC114" s="69"/>
+      <c r="AC114" s="110"/>
       <c r="AD114" s="55" t="s">
         <v>77</v>
       </c>
@@ -5419,31 +5415,31 @@
       <c r="AE116" s="49"/>
     </row>
     <row r="117" spans="1:31">
-      <c r="C117" s="76">
+      <c r="C117" s="105">
         <v>73</v>
       </c>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="77" t="s">
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="67">
+      <c r="G117" s="78"/>
+      <c r="H117" s="78"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="78"/>
+      <c r="K117" s="106">
         <v>185</v>
       </c>
-      <c r="L117" s="67"/>
-      <c r="M117" s="67"/>
-      <c r="N117" s="68">
+      <c r="L117" s="106"/>
+      <c r="M117" s="106"/>
+      <c r="N117" s="107">
         <v>20</v>
       </c>
-      <c r="O117" s="68"/>
-      <c r="P117" s="69">
+      <c r="O117" s="107"/>
+      <c r="P117" s="110">
         <v>0</v>
       </c>
-      <c r="Q117" s="69"/>
+      <c r="Q117" s="110"/>
       <c r="R117" s="55" t="s">
         <v>77</v>
       </c>
@@ -5454,100 +5450,100 @@
       <c r="V117" t="s">
         <v>17</v>
       </c>
-      <c r="W117" s="67">
+      <c r="W117" s="106">
         <v>165</v>
       </c>
-      <c r="X117" s="67"/>
-      <c r="Y117" s="67"/>
-      <c r="Z117" s="68">
+      <c r="X117" s="106"/>
+      <c r="Y117" s="106"/>
+      <c r="Z117" s="107">
         <v>18</v>
       </c>
-      <c r="AA117" s="68"/>
-      <c r="AB117" s="69">
+      <c r="AA117" s="107"/>
+      <c r="AB117" s="110">
         <v>0</v>
       </c>
-      <c r="AC117" s="69"/>
+      <c r="AC117" s="110"/>
       <c r="AD117" s="55" t="s">
         <v>77</v>
       </c>
       <c r="AE117" s="56"/>
     </row>
     <row r="118" spans="1:31">
-      <c r="C118" s="76">
+      <c r="C118" s="105">
         <v>74</v>
       </c>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="77" t="s">
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="67">
+      <c r="G118" s="78"/>
+      <c r="H118" s="78"/>
+      <c r="I118" s="78"/>
+      <c r="J118" s="78"/>
+      <c r="K118" s="106">
         <v>145.5</v>
       </c>
-      <c r="L118" s="67"/>
-      <c r="M118" s="67"/>
-      <c r="N118" s="68">
+      <c r="L118" s="106"/>
+      <c r="M118" s="106"/>
+      <c r="N118" s="107">
         <v>21</v>
       </c>
-      <c r="O118" s="68"/>
-      <c r="P118" s="69">
+      <c r="O118" s="107"/>
+      <c r="P118" s="110">
         <v>0</v>
       </c>
-      <c r="Q118" s="69"/>
+      <c r="Q118" s="110"/>
       <c r="R118" s="55" t="s">
         <v>77</v>
       </c>
       <c r="S118" s="56"/>
-      <c r="W118" s="67">
+      <c r="W118" s="106">
         <v>180</v>
       </c>
-      <c r="X118" s="67"/>
-      <c r="Y118" s="67"/>
-      <c r="Z118" s="68">
+      <c r="X118" s="106"/>
+      <c r="Y118" s="106"/>
+      <c r="Z118" s="107">
         <v>21</v>
       </c>
-      <c r="AA118" s="68"/>
-      <c r="AB118" s="69">
+      <c r="AA118" s="107"/>
+      <c r="AB118" s="110">
         <v>0</v>
       </c>
-      <c r="AC118" s="69"/>
+      <c r="AC118" s="110"/>
       <c r="AD118" s="55" t="s">
         <v>77</v>
       </c>
       <c r="AE118" s="56"/>
     </row>
     <row r="120" spans="1:31">
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="70"/>
-      <c r="L120" s="70"/>
-      <c r="M120" s="70"/>
-      <c r="N120" s="70"/>
-      <c r="O120" s="70"/>
-      <c r="P120" s="71"/>
-      <c r="Q120" s="71"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="112"/>
+      <c r="G120" s="112"/>
+      <c r="H120" s="112"/>
+      <c r="I120" s="112"/>
+      <c r="J120" s="112"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
+      <c r="M120" s="113"/>
+      <c r="N120" s="113"/>
+      <c r="O120" s="113"/>
+      <c r="P120" s="114"/>
+      <c r="Q120" s="114"/>
       <c r="R120" s="49"/>
       <c r="S120" s="49"/>
       <c r="T120" s="49"/>
       <c r="U120" s="49"/>
       <c r="V120" s="49"/>
-      <c r="W120" s="70"/>
-      <c r="X120" s="70"/>
-      <c r="Y120" s="70"/>
-      <c r="Z120" s="70"/>
-      <c r="AA120" s="70"/>
-      <c r="AB120" s="71"/>
-      <c r="AC120" s="71"/>
+      <c r="W120" s="113"/>
+      <c r="X120" s="113"/>
+      <c r="Y120" s="113"/>
+      <c r="Z120" s="113"/>
+      <c r="AA120" s="113"/>
+      <c r="AB120" s="114"/>
+      <c r="AC120" s="114"/>
     </row>
     <row r="121" spans="1:31">
       <c r="A121" t="s">
@@ -5561,24 +5557,218 @@
     </row>
   </sheetData>
   <mergeCells count="254">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AA114"/>
+    <mergeCell ref="AB114:AC114"/>
+    <mergeCell ref="W117:Y117"/>
+    <mergeCell ref="Z117:AA117"/>
+    <mergeCell ref="AB117:AC117"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="W118:Y118"/>
+    <mergeCell ref="Z118:AA118"/>
+    <mergeCell ref="AB118:AC118"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="W120:Y120"/>
+    <mergeCell ref="Z120:AA120"/>
+    <mergeCell ref="AB120:AC120"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="F120:J120"/>
+    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F114:J114"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="F117:J117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="T106:U106"/>
+    <mergeCell ref="V106:W106"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="R106:S106"/>
+    <mergeCell ref="W111:AC111"/>
+    <mergeCell ref="W112:Y112"/>
+    <mergeCell ref="Z112:AA112"/>
+    <mergeCell ref="AB112:AC112"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AA113"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="V104:W104"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="R103:S103"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="V100:W100"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="V103:W103"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="F99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="T99:U99"/>
+    <mergeCell ref="V99:W99"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="T98:U98"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
     <mergeCell ref="AB42:AC42"/>
     <mergeCell ref="AB43:AC43"/>
     <mergeCell ref="X98:Y98"/>
@@ -5603,218 +5793,24 @@
     <mergeCell ref="O39:Q39"/>
     <mergeCell ref="O29:Q29"/>
     <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="T98:U98"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="F99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="T99:U99"/>
-    <mergeCell ref="V99:W99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="V100:W100"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="V103:W103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="V104:W104"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="R103:S103"/>
-    <mergeCell ref="T106:U106"/>
-    <mergeCell ref="V106:W106"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="R106:S106"/>
-    <mergeCell ref="W111:AC111"/>
-    <mergeCell ref="W112:Y112"/>
-    <mergeCell ref="Z112:AA112"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AA113"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="W120:Y120"/>
-    <mergeCell ref="Z120:AA120"/>
-    <mergeCell ref="AB120:AC120"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="F120:J120"/>
-    <mergeCell ref="K111:Q111"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F114:J114"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="F117:J117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AA114"/>
-    <mergeCell ref="AB114:AC114"/>
-    <mergeCell ref="W117:Y117"/>
-    <mergeCell ref="Z117:AA117"/>
-    <mergeCell ref="AB117:AC117"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="W118:Y118"/>
-    <mergeCell ref="Z118:AA118"/>
-    <mergeCell ref="AB118:AC118"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:N27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
